--- a/Doc/Log.xlsx
+++ b/Doc/Log.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792E66C6-404E-412E-859D-E429BB2EFC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6AFD83-4B3C-4989-9063-08856190E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="150" windowWidth="16095" windowHeight="14970" xr2:uid="{7EB95D2F-6A5D-48BC-BDE8-0568BC204E85}"/>
+    <workbookView xWindow="4755" yWindow="480" windowWidth="16095" windowHeight="14970" xr2:uid="{7EB95D2F-6A5D-48BC-BDE8-0568BC204E85}"/>
   </bookViews>
   <sheets>
     <sheet name="d1_iti" sheetId="3" r:id="rId1"/>
-    <sheet name="d1_v1_p130" sheetId="2" r:id="rId2"/>
-    <sheet name="New_Iti" sheetId="4" r:id="rId3"/>
+    <sheet name="d2_iti" sheetId="5" r:id="rId2"/>
+    <sheet name="d1_v1_p130" sheetId="2" r:id="rId3"/>
+    <sheet name="d2_v1_p130" sheetId="6" r:id="rId4"/>
+    <sheet name="New_Iti" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +35,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,20 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5F82E1-3C25-44D5-8A36-CDC550FF76CE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>1.1000000000000001E-3</v>
+        <v>11</v>
       </c>
       <c r="B1">
-        <v>1.1999999999999999E-3</v>
+        <v>12</v>
       </c>
       <c r="C1">
         <v>13</v>
@@ -415,46 +424,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1.1000000000000001E-3</v>
+        <v>82</v>
       </c>
       <c r="B2">
-        <v>1.1999999999999999E-3</v>
+        <v>168</v>
       </c>
       <c r="C2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="B3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>225</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>225</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -468,12 +444,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C3750E-A174-48D6-9CE8-BE63F4477F99}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>22</v>
+      </c>
+      <c r="C1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>168</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B68AB-9002-4CDC-BFC9-2CD86500EAC5}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD57"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -491,16 +505,16 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -520,16 +534,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F2">
-        <v>-0.66025403784438697</v>
+        <v>91.339745962155604</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="H2">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -549,16 +563,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F3">
-        <v>-9.3205080756887693</v>
+        <v>82.679491924311193</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -578,16 +592,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F4">
-        <v>-17.980762113533199</v>
+        <v>74.019237886466897</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -607,16 +621,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F5">
-        <v>-26.641016151377499</v>
+        <v>65.358983848622501</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -636,16 +650,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F6">
-        <v>-35.301270189221903</v>
+        <v>56.698729810778097</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -665,16 +679,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F7">
-        <v>-43.961524227066299</v>
+        <v>48.038475772933701</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -694,16 +708,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F8">
-        <v>-52.621778264910702</v>
+        <v>39.378221735089298</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -723,16 +737,16 @@
         <v>8.6602540378443909</v>
       </c>
       <c r="F9">
-        <v>-61.282032302755098</v>
+        <v>30.717967697244902</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -752,16 +766,16 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F10">
-        <v>-68.353100114620602</v>
+        <v>23.646899885379401</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -781,16 +795,16 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F11">
-        <v>-75.424167926486106</v>
+        <v>16.575832073514</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -810,16 +824,16 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F12">
-        <v>-82.495235738351496</v>
+        <v>9.5047642616484893</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -839,16 +853,16 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F13">
-        <v>-89.566303550217</v>
+        <v>2.4336964497830098</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -868,16 +882,16 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F14">
-        <v>-96.637371362082504</v>
+        <v>-4.6373713620824599</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -897,7 +911,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F15">
-        <v>-103.70843917394799</v>
+        <v>-11.7084391739479</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -926,7 +940,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F16">
-        <v>-110.779506985813</v>
+        <v>-18.779506985813399</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -955,7 +969,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F17">
-        <v>-117.850574797679</v>
+        <v>-25.850574797678899</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -984,7 +998,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F18">
-        <v>-124.92164260954399</v>
+        <v>-32.921642609544399</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1013,7 +1027,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F19">
-        <v>-131.99271042141001</v>
+        <v>-39.992710421409797</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1042,7 +1056,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F20">
-        <v>-139.063778233275</v>
+        <v>-47.063778233275301</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1071,7 +1085,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F21">
-        <v>-146.13484604514099</v>
+        <v>-54.134846045140797</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1100,7 +1114,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F22">
-        <v>-153.20591385700601</v>
+        <v>-61.205913857006301</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1129,7 +1143,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F23">
-        <v>-160.276981668872</v>
+        <v>-68.276981668871699</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1158,7 +1172,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F24">
-        <v>-167.34804948073699</v>
+        <v>-75.348049480737203</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1187,7 +1201,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F25">
-        <v>-174.419117292603</v>
+        <v>-82.419117292602706</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1216,7 +1230,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F26">
-        <v>-181.490185104468</v>
+        <v>-89.490185104468196</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1245,7 +1259,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F27">
-        <v>-188.56125291633401</v>
+        <v>-96.561252916333601</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1274,7 +1288,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F28">
-        <v>-195.63232072819901</v>
+        <v>-103.63232072819901</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1303,7 +1317,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F29">
-        <v>-202.70338854006499</v>
+        <v>-110.70338854006501</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1332,7 +1346,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F30">
-        <v>-209.77445635193001</v>
+        <v>-117.77445635193</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1361,7 +1375,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F31">
-        <v>-216.845524163796</v>
+        <v>-124.845524163796</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1390,7 +1404,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F32">
-        <v>-223.91659197566099</v>
+        <v>-131.91659197566099</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1419,7 +1433,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F33">
-        <v>-230.98765978752701</v>
+        <v>-138.98765978752601</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1448,7 +1462,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F34">
-        <v>-238.058727599392</v>
+        <v>-146.058727599392</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1477,7 +1491,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F35">
-        <v>-245.12979541125699</v>
+        <v>-153.12979541125699</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1506,7 +1520,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F36">
-        <v>-252.20086322312301</v>
+        <v>-160.20086322312301</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1535,7 +1549,7 @@
         <v>7.0710678118654799</v>
       </c>
       <c r="F37">
-        <v>-259.27193103498797</v>
+        <v>-167.271931034988</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1564,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>-264.27193103498797</v>
+        <v>-172.271931034988</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1593,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="F39">
-        <v>-269.27193103498797</v>
+        <v>-177.271931034988</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1615,13 +1629,1157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B06506-EF81-4E45-B0F1-838FAD7B695E}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>230</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>21</v>
+      </c>
+      <c r="H1">
+        <v>22</v>
+      </c>
+      <c r="I1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>225</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F2">
+        <v>91.339745962155604</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>172</v>
+      </c>
+      <c r="I2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>220</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F3">
+        <v>82.679491924311193</v>
+      </c>
+      <c r="G3">
+        <v>78</v>
+      </c>
+      <c r="H3">
+        <v>172</v>
+      </c>
+      <c r="I3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>215</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F4">
+        <v>74.019237886466897</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>172</v>
+      </c>
+      <c r="I4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>210</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F5">
+        <v>65.358983848622501</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>172</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>205</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F6">
+        <v>56.698729810778097</v>
+      </c>
+      <c r="G6">
+        <v>78</v>
+      </c>
+      <c r="H6">
+        <v>172</v>
+      </c>
+      <c r="I6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F7">
+        <v>48.038475772933701</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>172</v>
+      </c>
+      <c r="I7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>195</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F8">
+        <v>39.378221735089298</v>
+      </c>
+      <c r="G8">
+        <v>78</v>
+      </c>
+      <c r="H8">
+        <v>172</v>
+      </c>
+      <c r="I8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>190</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="F9">
+        <v>30.717967697244902</v>
+      </c>
+      <c r="G9">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>172</v>
+      </c>
+      <c r="I9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>185</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F10">
+        <v>23.646899885379401</v>
+      </c>
+      <c r="G10">
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <v>168</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F11">
+        <v>16.575832073514</v>
+      </c>
+      <c r="G11">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <v>168</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>175</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F12">
+        <v>9.5047642616484893</v>
+      </c>
+      <c r="G12">
+        <v>82</v>
+      </c>
+      <c r="H12">
+        <v>168</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>170</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F13">
+        <v>2.4336964497830098</v>
+      </c>
+      <c r="G13">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <v>168</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>165</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F14">
+        <v>-4.6373713620824599</v>
+      </c>
+      <c r="G14">
+        <v>82</v>
+      </c>
+      <c r="H14">
+        <v>168</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F15">
+        <v>-11.7084391739479</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>155</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F16">
+        <v>-18.779506985813399</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F17">
+        <v>-25.850574797678899</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>145</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F18">
+        <v>-32.921642609544399</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F19">
+        <v>-39.992710421409797</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>135</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F20">
+        <v>-47.063778233275301</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F21">
+        <v>-54.134846045140797</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <v>125</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F22">
+        <v>-61.205913857006301</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F23">
+        <v>-68.276981668871699</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <v>115</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F24">
+        <v>-75.348049480737203</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F25">
+        <v>-82.419117292602706</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <v>105</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F26">
+        <v>-89.490185104468196</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F27">
+        <v>-96.561252916333601</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <v>95</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F28">
+        <v>-103.63232072819901</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>160</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F29">
+        <v>-110.70338854006501</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>165</v>
+      </c>
+      <c r="B30">
+        <v>85</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F30">
+        <v>-117.77445635193</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>170</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F31">
+        <v>-124.845524163796</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F32">
+        <v>-131.91659197566099</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>180</v>
+      </c>
+      <c r="B33">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F33">
+        <v>-138.98765978752601</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>185</v>
+      </c>
+      <c r="B34">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F34">
+        <v>-146.058727599392</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F35">
+        <v>-153.12979541125699</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>195</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F36">
+        <v>-160.20086322312301</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>7.0710678118654799</v>
+      </c>
+      <c r="F37">
+        <v>-167.271931034988</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>205</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>-172.271931034988</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>210</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>-177.271931034988</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE073F-F5FC-4100-87E4-22D873D5F547}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1634,6 +2792,11 @@
       </c>
       <c r="C1">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
